--- a/results/ml models/RF results.xlsx
+++ b/results/ml models/RF results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">commodity</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dubai Fateh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG Asia</t>
   </si>
   <si>
     <t xml:space="preserve">NatGas Henry Hub</t>
@@ -401,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.43015955935552</v>
+        <v>4.28836741023795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.119162641620115</v>
+        <v>0.0894790498803292</v>
       </c>
     </row>
     <row r="3">
@@ -461,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.287154230998298</v>
+        <v>2.82893212264454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0820923042851305</v>
+        <v>0.276474760366797</v>
       </c>
     </row>
     <row r="6">
@@ -481,18 +484,38 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
+        <v>0.287154230998298</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0820923042851305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>4.51469923918955</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>0.145628691867472</v>
       </c>
     </row>

--- a/results/ml models/RF results.xlsx
+++ b/results/ml models/RF results.xlsx
@@ -1,61 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/ml models/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_D8529890DA7ED3F963617619D0902B20986B5946" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AC130-DC1D-3D4F-80C2-3E3A7B4C5469}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">commodity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_lags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mtry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubai Fateh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNG Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatGas Henry Hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTI</t>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>n_lags</t>
+  </si>
+  <si>
+    <t>ntree</t>
+  </si>
+  <si>
+    <t>mtry</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mape</t>
+  </si>
+  <si>
+    <t>APSP</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Dubai Fateh</t>
+  </si>
+  <si>
+    <t>LNG Asia</t>
+  </si>
+  <si>
+    <t>NatGas Henry Hub</t>
+  </si>
+  <si>
+    <t>WTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,9 +95,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,14 +388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:O7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,128 +417,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>4.28836741023795</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0894790498803292</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>4.2883674102379503</v>
+      </c>
+      <c r="F2">
+        <v>8.9479049880329203E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>3.27551331607352</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0881277949889516</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>3.2755133160735199</v>
+      </c>
+      <c r="F3">
+        <v>8.8127794988951597E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>4.53418331267208</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.103304224486154</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>4.5341833126720799</v>
+      </c>
+      <c r="F4">
+        <v>0.10330422448615401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>2.82893212264454</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.276474760366797</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>2.8289321226445399</v>
+      </c>
+      <c r="F5">
+        <v>0.27647476036679702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.287154230998298</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0820923042851305</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>0.28715423099829801</v>
+      </c>
+      <c r="F6">
+        <v>8.2092304285130493E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>4.51469923918955</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.145628691867472</v>
+      <c r="E7">
+        <v>4.5146992391895502</v>
+      </c>
+      <c r="F7">
+        <v>0.14562869186747199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>